--- a/app/outputs/partner_match.xlsx
+++ b/app/outputs/partner_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>Partners</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>['None'],AIR-INK: Air-Pollution to ink</t>
+  </si>
+  <si>
+    <t>['None'],Algramo-Catalyzing Reusable Packaging</t>
   </si>
 </sst>
 </file>
@@ -800,10 +803,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -844,10 +847,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -921,10 +924,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">

--- a/app/outputs/partner_match.xlsx
+++ b/app/outputs/partner_match.xlsx
@@ -902,10 +902,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">

--- a/app/outputs/partner_match.xlsx
+++ b/app/outputs/partner_match.xlsx
@@ -148,7 +148,7 @@
     <t>['None'],AIR-INK: Air-Pollution to ink</t>
   </si>
   <si>
-    <t>['None'],Algramo-Catalyzing Reusable Packaging</t>
+    <t>['None'],Mycotech</t>
   </si>
 </sst>
 </file>
@@ -902,10 +902,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -924,10 +924,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -946,10 +946,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/app/outputs/partner_match.xlsx
+++ b/app/outputs/partner_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>Partners</t>
   </si>
@@ -143,12 +143,6 @@
   </si>
   <si>
     <t>['None']</t>
-  </si>
-  <si>
-    <t>['None'],AIR-INK: Air-Pollution to ink</t>
-  </si>
-  <si>
-    <t>['None'],Mycotech</t>
   </si>
 </sst>
 </file>
@@ -803,10 +797,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -946,10 +940,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/app/outputs/partner_match.xlsx
+++ b/app/outputs/partner_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
   <si>
     <t>Partners</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Count</t>
   </si>
   <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>Aditya Birla Group</t>
   </si>
   <si>
@@ -142,7 +145,10 @@
     <t>Yum! Brands</t>
   </si>
   <si>
-    <t>['None']</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Hey this is a test</t>
   </si>
 </sst>
 </file>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,434 +522,554 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/app/outputs/partner_match.xlsx
+++ b/app/outputs/partner_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
   <si>
     <t>Partners</t>
   </si>
@@ -148,7 +148,16 @@
     <t>None</t>
   </si>
   <si>
-    <t>Hey this is a test</t>
+    <t>None,AIR-INK: Air-Pollution to ink</t>
+  </si>
+  <si>
+    <t>None,Renewal Workshop</t>
+  </si>
+  <si>
+    <t>this is it!</t>
+  </si>
+  <si>
+    <t>Maybe not</t>
   </si>
 </sst>
 </file>
@@ -881,13 +890,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1035,13 +1044,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4">

--- a/app/outputs/partner_match.xlsx
+++ b/app/outputs/partner_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
   <si>
     <t>Partners</t>
   </si>
@@ -149,15 +149,6 @@
   </si>
   <si>
     <t>None,AIR-INK: Air-Pollution to ink</t>
-  </si>
-  <si>
-    <t>None,Renewal Workshop</t>
-  </si>
-  <si>
-    <t>this is it!</t>
-  </si>
-  <si>
-    <t>Maybe not</t>
   </si>
 </sst>
 </file>
@@ -890,13 +881,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -974,10 +965,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
         <v>43</v>
@@ -1044,13 +1035,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4">

--- a/app/outputs/partner_match.xlsx
+++ b/app/outputs/partner_match.xlsx
@@ -148,7 +148,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>None,AIR-INK: Air-Pollution to ink</t>
+    <t>None,Mycotech</t>
   </si>
 </sst>
 </file>
@@ -881,10 +881,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
@@ -965,10 +965,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>43</v>

--- a/app/outputs/partner_match.xlsx
+++ b/app/outputs/partner_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="83">
   <si>
     <t>Partners</t>
   </si>
@@ -28,58 +28,238 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>Access Afya</t>
+  </si>
+  <si>
+    <t>American Family Insurance Institute for Corporate and Social Impact</t>
+  </si>
+  <si>
     <t>American Student Assistance (ASA)</t>
   </si>
   <si>
+    <t>Americares</t>
+  </si>
+  <si>
+    <t>Antropia ESSEC</t>
+  </si>
+  <si>
+    <t>AutoCognita</t>
+  </si>
+  <si>
+    <t>Best Buy</t>
+  </si>
+  <si>
+    <t>Blue Haven Initiative</t>
+  </si>
+  <si>
     <t>BMW Foundation Herbert Quandt</t>
   </si>
   <si>
+    <t>Cambridge Associates</t>
+  </si>
+  <si>
+    <t>Capital One</t>
+  </si>
+  <si>
+    <t>Care 2 Communities</t>
+  </si>
+  <si>
+    <t>Cast Collective</t>
+  </si>
+  <si>
     <t>Clint Taylor</t>
   </si>
   <si>
     <t>Clorox</t>
   </si>
   <si>
+    <t>Closed Loop Partners</t>
+  </si>
+  <si>
+    <t>Comcast NBCUniversal</t>
+  </si>
+  <si>
+    <t>Compassion International</t>
+  </si>
+  <si>
     <t>Conduent</t>
   </si>
   <si>
+    <t>Covestro</t>
+  </si>
+  <si>
+    <t>Danaher</t>
+  </si>
+  <si>
     <t>Deshpande Foundation</t>
   </si>
   <si>
+    <t>Dubai Cares</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>EcoAdvisors</t>
+  </si>
+  <si>
+    <t>EILEEN FISHER</t>
+  </si>
+  <si>
+    <t>Enel Foundation and Strategic Studies Center</t>
+  </si>
+  <si>
     <t>Firefly Innovations</t>
   </si>
   <si>
+    <t>Georgia-Pacific Foundation</t>
+  </si>
+  <si>
+    <t>Gina's Collective</t>
+  </si>
+  <si>
+    <t>Global Fund to fight Aids, Tuberculosis and Malaria</t>
+  </si>
+  <si>
     <t>Grupo Salinas</t>
   </si>
   <si>
+    <t>Henkel</t>
+  </si>
+  <si>
     <t>Ingredion</t>
   </si>
   <si>
+    <t>Innospark Ventures</t>
+  </si>
+  <si>
+    <t>Innovation Norway</t>
+  </si>
+  <si>
     <t>Kevin Przybocki</t>
   </si>
   <si>
+    <t>Klaxoon</t>
+  </si>
+  <si>
+    <t>KSF Impact</t>
+  </si>
+  <si>
+    <t>Leap Ventures</t>
+  </si>
+  <si>
+    <t>Lex Mundi Pro Bono Foundation</t>
+  </si>
+  <si>
     <t>Llamasoft</t>
   </si>
   <si>
+    <t>Mannin Research</t>
+  </si>
+  <si>
+    <t>Merck for Mothers</t>
+  </si>
+  <si>
     <t>Merian Ventures</t>
   </si>
   <si>
+    <t>MIT Club of Northern California</t>
+  </si>
+  <si>
     <t>Mondi Group</t>
   </si>
   <si>
+    <t>Morgridge Family Foundation</t>
+  </si>
+  <si>
+    <t>National Rongxiang Xu Foundation</t>
+  </si>
+  <si>
+    <t>Northrop Grumman Corporation</t>
+  </si>
+  <si>
+    <t>Nuvo</t>
+  </si>
+  <si>
+    <t>Olam International</t>
+  </si>
+  <si>
+    <t>Oliver Wyman Group</t>
+  </si>
+  <si>
+    <t>Penn Foster</t>
+  </si>
+  <si>
     <t>Pfizer Inc.</t>
   </si>
   <si>
+    <t>Queen Rania Foundation for Education and Development</t>
+  </si>
+  <si>
+    <t>RISE</t>
+  </si>
+  <si>
+    <t>Save the Children</t>
+  </si>
+  <si>
+    <t>Seed Global Health</t>
+  </si>
+  <si>
     <t>Someone Else's Child Foundation</t>
   </si>
   <si>
+    <t>Soronko Solutions</t>
+  </si>
+  <si>
+    <t>Sresta Natural Bioproducts Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Stand Together</t>
+  </si>
+  <si>
+    <t>Strada Education Network</t>
+  </si>
+  <si>
+    <t>Tecnológico de Monterrey</t>
+  </si>
+  <si>
+    <t>TGR Foundation</t>
+  </si>
+  <si>
     <t>The Hague Business Agency</t>
   </si>
   <si>
     <t>The Kamath Family Foundation</t>
   </si>
   <si>
+    <t>The Nature Conservancy</t>
+  </si>
+  <si>
+    <t>The Pershing Square Foundation</t>
+  </si>
+  <si>
     <t>Twilio.org</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Ultranauts Inc</t>
+  </si>
+  <si>
+    <t>UN Women</t>
+  </si>
+  <si>
+    <t>Usizo Advisory Solutions</t>
+  </si>
+  <si>
+    <t>Women’s WorldWide Web (W4)</t>
+  </si>
+  <si>
+    <t>Xprize</t>
+  </si>
+  <si>
+    <t>YUM Brands</t>
   </si>
   <si>
     <t>None</t>
@@ -440,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,13 +645,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -479,13 +659,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -493,13 +673,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -507,13 +687,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -521,13 +701,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -535,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -549,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -563,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -577,13 +757,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -591,13 +771,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -605,13 +785,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -619,13 +799,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -633,13 +813,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -647,13 +827,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -661,13 +841,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -675,13 +855,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -689,13 +869,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -703,13 +883,853 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/app/outputs/partner_match.xlsx
+++ b/app/outputs/partner_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="85">
   <si>
     <t>Partners</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>None,AHSA Platform</t>
+  </si>
+  <si>
+    <t>None,AHSA Platform,Jute-based biodegradable PPE</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1029,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>82</v>
@@ -1149,10 +1155,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
         <v>82</v>
@@ -1583,10 +1589,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
         <v>82</v>
@@ -1681,10 +1687,10 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
         <v>82</v>

--- a/app/outputs/partner_match.xlsx
+++ b/app/outputs/partner_match.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,7 +819,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Capital One</t>
+          <t>Cast Collective</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -839,7 +839,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cast Collective</t>
+          <t>Cermaq Group</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -859,7 +859,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cermaq Group</t>
+          <t>CHAiNT Afrique Ghana</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -879,7 +879,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHAiNT Afrique Ghana</t>
+          <t>Chandna Foundation</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -899,7 +899,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chandna Foundation</t>
+          <t>Clint Taylor</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -919,7 +919,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Clint Taylor</t>
+          <t>Clorox</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -939,7 +939,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Clorox</t>
+          <t>Compassion International</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -959,7 +959,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Compassion International</t>
+          <t>Conduent</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -979,7 +979,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Conduent</t>
+          <t>Consejo Nacional de Investigaciones CientÃ­ficas y TÃ©cnicas</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -999,7 +999,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Consejo Nacional de Investigaciones Científicas y Técnicas</t>
+          <t>DBS Foundation</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DBS Foundation</t>
+          <t>Digital Citizen Fund</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1039,7 +1039,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Digital Citizen Fund</t>
+          <t>Dimagi Inc.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dimagi Inc.</t>
+          <t>Dropbox Inc.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1079,7 +1079,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dropbox Inc.</t>
+          <t>Dubai Cares</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1099,7 +1099,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dubai Cares</t>
+          <t>EcoAdvisors</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1119,7 +1119,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EcoAdvisors</t>
+          <t>edX</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1139,7 +1139,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>edX</t>
+          <t>EMBRAPA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1159,7 +1159,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EMBRAPA</t>
+          <t>EPAM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1179,7 +1179,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>Experian</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Experian</t>
+          <t>Federation of Bangladesh Chambers of Commerce and Industries</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1219,7 +1219,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Federation of Bangladesh Chambers of Commerce and Industries</t>
+          <t>Firefly Innovations</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1239,7 +1239,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Firefly Innovations</t>
+          <t>Fondation Prince Albert II de Monaco</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1259,7 +1259,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Firefly Innovations</t>
+          <t>Foundation for Partnership Initiatives in the Niger Delta</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1279,7 +1279,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fondation Prince Albert II de Monaco</t>
+          <t>Future Planet Capital</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1299,7 +1299,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Foundation for Partnership Initiatives in the Niger Delta</t>
+          <t>Georgia-Pacific Foundation</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1319,7 +1319,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Future Planet Capital</t>
+          <t>Golem Network</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1339,7 +1339,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Georgia-Pacific Foundation</t>
+          <t>Grupo Salinas</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1359,7 +1359,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Golem Network</t>
+          <t>Hamilton Insurance Group</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1379,7 +1379,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Grupo Salinas</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1399,7 +1399,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Hamilton Insurance Group</t>
+          <t>Innospark Ventures</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1419,7 +1419,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>Innovation Norway</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1439,7 +1439,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Innospark Ventures</t>
+          <t>International Center for Biosaline Agriculture</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1459,7 +1459,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Innovation Norway</t>
+          <t>International Federation of Inventors Associations</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1479,7 +1479,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>International Center for Biosaline Agriculture</t>
+          <t>International Trans Fund</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1499,7 +1499,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>International Federation of Inventors Associations</t>
+          <t>IntraHealth</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1519,7 +1519,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>International Trans Fund</t>
+          <t>InVision</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1539,7 +1539,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IntraHealth</t>
+          <t>Jobs for the Future</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1559,7 +1559,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>InVision</t>
+          <t>Klaxoon</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1579,7 +1579,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Jobs for the Future</t>
+          <t>Knight Foundation</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1599,7 +1599,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Klaxoon</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1619,7 +1619,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Knight Foundation</t>
+          <t>Lex Mundi Pro Bono Foundation</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1639,7 +1639,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Kroger</t>
+          <t>LifeBank</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1659,7 +1659,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Lex Mundi Pro Bono Foundation</t>
+          <t>Luminus Education</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1679,7 +1679,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LifeBank</t>
+          <t>Lux Capital</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1699,7 +1699,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Luminus Education</t>
+          <t>Malaika</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1719,7 +1719,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Lux Capital</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1739,7 +1739,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Malaika</t>
+          <t>Merian Ventures</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1759,7 +1759,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Metta Impact Ventures Pte Ltd</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1779,7 +1779,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Merian Ventures</t>
+          <t>MIT Department of Urban Studies and Planning</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1799,7 +1799,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Metta Impact Ventures Pte Ltd</t>
+          <t>MIT Media Lab</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1819,7 +1819,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MIT Department of Urban Studies and Planning</t>
+          <t>Mondi Group</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1839,7 +1839,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MIT Media Lab</t>
+          <t>MyGovIndia</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1859,7 +1859,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Mondi Group</t>
+          <t>Neopenda</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1879,7 +1879,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MyGovIndia</t>
+          <t>Nonfiction Design</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1899,7 +1899,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Neopenda</t>
+          <t>Northrop Grumman Corporation</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1919,7 +1919,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Nonfiction Design</t>
+          <t>Nuvo Inc.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1939,7 +1939,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Nonfiction Design</t>
+          <t>Obama Foundation</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1959,7 +1959,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Northrop Grumman Corporation</t>
+          <t>Olam International</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1979,7 +1979,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Nuvo Inc.</t>
+          <t>Oliver Wyman Group</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1999,7 +1999,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Obama Foundation</t>
+          <t>Pfizer Inc.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2019,7 +2019,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Olam International</t>
+          <t>Pioneering Ventures</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2039,7 +2039,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Oliver Wyman Group</t>
+          <t>RISE</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2059,7 +2059,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Pfizer Inc.</t>
+          <t>SAP</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2079,7 +2079,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Pioneering Ventures</t>
+          <t>Save the Children</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2099,7 +2099,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RISE</t>
+          <t>Schmidt Marine Technology Partners</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2119,7 +2119,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>SEED</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2139,7 +2139,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Save the Children</t>
+          <t>Seed Global Health</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2159,7 +2159,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Schmidt Marine Technology Partners</t>
+          <t>Segal Family Foundation</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2179,7 +2179,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SEED</t>
+          <t>Someone Else's Child Foundation</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2199,7 +2199,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Seed Global Health</t>
+          <t>Soronko Solutions</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2219,7 +2219,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Segal Family Foundation</t>
+          <t>Sresta, Inc</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2239,7 +2239,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Someone Else's Child Foundation</t>
+          <t>Strada Education Network</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2259,7 +2259,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Soronko Solutions</t>
+          <t>Sustain Labs Paris</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2279,7 +2279,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sresta, Inc</t>
+          <t>Swarovski</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2299,7 +2299,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Strada Education Network</t>
+          <t>T.A. Pai Management Institute</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2319,7 +2319,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Strada Education Network</t>
+          <t>The Geneva Learning Foundation</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2339,7 +2339,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sustain Labs Paris</t>
+          <t>The Global Fund to Fight AIDS, Tuberculosis and Malaria</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2359,7 +2359,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Swarovski</t>
+          <t>The Hague Business Agency</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2379,7 +2379,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>T.A. Pai Management Institute</t>
+          <t>The Kamath Family Foundation</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2399,7 +2399,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>The Geneva Learning Foundation</t>
+          <t>The Mobile Commodity MarketPlace</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2419,7 +2419,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>The Global Fund to Fight AIDS, Tuberculosis and Malaria</t>
+          <t>The Nature Conservancy</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2439,7 +2439,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>The Hague Business Agency</t>
+          <t>The Pershing Square Foundation</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2459,7 +2459,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>The Kamath Family Foundation</t>
+          <t>Twilio.org</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2479,7 +2479,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>The Mobile Commodity MarketPlace</t>
+          <t>Uber</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2499,7 +2499,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>The Nature Conservancy</t>
+          <t>UN Women</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2519,7 +2519,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>The Pershing Square Foundation</t>
+          <t>Unfunded List</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2539,7 +2539,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Twilio.org</t>
+          <t>University of Cambridge</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2559,7 +2559,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Uber</t>
+          <t>Ventec Life Systems</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2579,7 +2579,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>UN Women</t>
+          <t>WellBeing Foundation Africa</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2599,7 +2599,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Unfunded List</t>
+          <t>Wiley Education Services</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2619,7 +2619,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>University of Cambridge</t>
+          <t>Women's WorldWide Web (W4)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2639,7 +2639,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Ventec Life Systems</t>
+          <t>X Prize Foundation</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2659,7 +2659,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>WellBeing Foundation Africa</t>
+          <t>X, The Moonshot Factory</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2679,7 +2679,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Wiley Education Services</t>
+          <t>YUM Brands</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2691,86 +2691,6 @@
         <v>0</v>
       </c>
       <c r="D113" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Women's WorldWide Web (W4)</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>X Prize Foundation</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>X, The Moonshot Factory</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>YUM Brands</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="inlineStr">
         <is>
           <t>None</t>
         </is>
